--- a/django_project/dictionary.xlsx
+++ b/django_project/dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M Usman\Desktop\SSR web app\Corey tutorial\django_project\blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M Usman\Desktop\Twitionary\django_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="188">
   <si>
     <t>Bridge Damage</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>words</t>
+  </si>
+  <si>
+    <t>covid-19</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
 </sst>
 </file>
@@ -911,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A191"/>
+  <dimension ref="A1:A193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,6 +1883,16 @@
         <v>184</v>
       </c>
     </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/django_project/dictionary.xlsx
+++ b/django_project/dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>words</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>pandemic</t>
+  </si>
+  <si>
+    <t>lock down</t>
+  </si>
+  <si>
+    <t>put off</t>
+  </si>
+  <si>
+    <t>look down on</t>
+  </si>
+  <si>
+    <t>Epidemic</t>
+  </si>
+  <si>
+    <t>Lockdown</t>
+  </si>
+  <si>
+    <t>Social Distancing</t>
+  </si>
+  <si>
+    <t>Self-Isolation</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Quarantine</t>
   </si>
 </sst>
 </file>
@@ -377,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,8 +458,63 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="https://www.macmillanthesaurus.com/lock-down"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.macmillanthesaurus.com/put-off"/>
+    <hyperlink ref="A11" r:id="rId3" display="https://www.macmillanthesaurus.com/look-down-on"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/django_project/dictionary.xlsx
+++ b/django_project/dictionary.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>words</t>
   </si>
@@ -78,6 +79,9 @@
   </si>
   <si>
     <t>Quarantine</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
   </si>
 </sst>
 </file>
@@ -407,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,6 +512,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" display="https://www.macmillanthesaurus.com/lock-down"/>
@@ -517,4 +526,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/django_project/dictionary.xlsx
+++ b/django_project/dictionary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,10 +437,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>pk</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>words</t>
         </is>
@@ -383,9 +456,12 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Bridge Damage</t>
         </is>
@@ -396,9 +472,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Building Code</t>
         </is>
@@ -409,9 +488,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Building Collapse</t>
         </is>
@@ -422,9 +504,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
@@ -435,9 +520,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Catastrophe</t>
         </is>
@@ -448,9 +536,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Change Adaptation</t>
         </is>
@@ -461,9 +552,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Cholera</t>
         </is>
@@ -474,9 +568,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Civil Defence</t>
         </is>
@@ -487,9 +584,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Civil Protection</t>
         </is>
@@ -500,9 +600,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Climate Change Climate</t>
         </is>
@@ -513,9 +616,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Climate Change Mitigation</t>
         </is>
@@ -526,9 +632,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Climate Proofing</t>
         </is>
@@ -539,9 +648,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Cloud Bursting</t>
         </is>
@@ -552,9 +664,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>14</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Community Emergency Response Team</t>
         </is>
@@ -565,9 +680,12 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Community Preparedness</t>
         </is>
@@ -578,9 +696,12 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Comprehensive Approach</t>
         </is>
@@ -591,9 +712,12 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Contingency</t>
         </is>
@@ -604,9 +728,12 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Contingency Plan</t>
         </is>
@@ -617,9 +744,12 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Coping Capacity</t>
         </is>
@@ -630,9 +760,12 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Corona Virus</t>
         </is>
@@ -643,9 +776,12 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Crisis</t>
         </is>
@@ -656,9 +792,12 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>22</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Crisis Communication</t>
         </is>
@@ -669,9 +808,12 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>23</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Crisis Management</t>
         </is>
@@ -682,9 +824,12 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>24</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Critical Infrastructure</t>
         </is>
@@ -695,9 +840,12 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>25</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Crowdsourcing</t>
         </is>
@@ -708,9 +856,12 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>26</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Culture Of Preparedness</t>
         </is>
@@ -721,9 +872,12 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>27</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Damage Assessment</t>
         </is>
@@ -734,9 +888,12 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Dengue</t>
         </is>
@@ -747,9 +904,12 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>29</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Desertification</t>
         </is>
@@ -760,9 +920,12 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>30</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Disaster</t>
         </is>
@@ -773,9 +936,12 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>31</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Disaster Cycle</t>
         </is>
@@ -786,9 +952,12 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>32</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Disaster Declaration</t>
         </is>
@@ -799,9 +968,12 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>33</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Disaster Framing</t>
         </is>
@@ -812,9 +984,12 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
         <v>34</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Disaster Inventory System</t>
         </is>
@@ -825,9 +1000,12 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
         <v>35</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Disaster Management</t>
         </is>
@@ -838,9 +1016,12 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
         <v>36</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Disaster Risk Reduction</t>
         </is>
@@ -851,9 +1032,12 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
         <v>37</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Disaster Recovery</t>
         </is>
@@ -864,9 +1048,12 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
         <v>38</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Disaster Recovery Plan</t>
         </is>
@@ -877,9 +1064,12 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
         <v>39</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Disaster Relief</t>
         </is>
@@ -890,9 +1080,12 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
         <v>40</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Disaster Resilience</t>
         </is>
@@ -903,9 +1096,12 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
         <v>41</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Disaster Risk Reduction</t>
         </is>
@@ -916,9 +1112,12 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
         <v>42</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Disaster Victim Identification</t>
         </is>
@@ -929,9 +1128,12 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
         <v>43</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Displaced Persons</t>
         </is>
@@ -942,9 +1144,12 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
         <v>44</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Drought</t>
         </is>
@@ -955,9 +1160,12 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
         <v>45</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Drought</t>
         </is>
@@ -968,9 +1176,12 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
         <v>46</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>DRR</t>
         </is>
@@ -981,9 +1192,12 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
         <v>47</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Early Recovery</t>
         </is>
@@ -994,9 +1208,12 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
         <v>48</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Early Warning</t>
         </is>
@@ -1007,9 +1224,12 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
         <v>49</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Earthquakes</t>
         </is>
@@ -1020,9 +1240,12 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
         <v>50</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Ecological Disaster</t>
         </is>
@@ -1033,9 +1256,12 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
         <v>51</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Emergency</t>
         </is>
@@ -1046,9 +1272,12 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
         <v>52</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Emergency Events Database</t>
         </is>
@@ -1059,9 +1288,12 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
         <v>53</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Emergency Management Cycle</t>
         </is>
@@ -1072,9 +1304,12 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
         <v>54</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Emergency Mapping</t>
         </is>
@@ -1085,9 +1320,12 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
         <v>55</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Emergency Operations Centre</t>
         </is>
@@ -1098,9 +1336,12 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
         <v>56</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Emergency Relief</t>
         </is>
@@ -1111,9 +1352,12 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
         <v>57</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Emergency Response</t>
         </is>
@@ -1124,9 +1368,12 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
         <v>58</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Epidemic</t>
         </is>
@@ -1137,9 +1384,12 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
         <v>59</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Evacuation</t>
         </is>
@@ -1150,9 +1400,12 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
         <v>60</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Evacuation</t>
         </is>
@@ -1163,9 +1416,12 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
         <v>61</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Famine</t>
         </is>
@@ -1176,9 +1432,12 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
         <v>62</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Fire</t>
         </is>
@@ -1189,9 +1448,12 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
         <v>63</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Fire Code</t>
         </is>
@@ -1202,9 +1464,12 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
         <v>64</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Fire Extinguisher</t>
         </is>
@@ -1215,9 +1480,12 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
         <v>65</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Fire Fighting</t>
         </is>
@@ -1228,9 +1496,12 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
         <v>66</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Flash Flood</t>
         </is>
@@ -1241,9 +1512,12 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
         <v>67</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Flood</t>
         </is>
@@ -1254,9 +1528,12 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
         <v>68</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Flooding</t>
         </is>
@@ -1267,9 +1544,12 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
         <v>69</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Flue</t>
         </is>
@@ -1280,9 +1560,12 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
         <v>70</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Forecasting</t>
         </is>
@@ -1293,9 +1576,12 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
         <v>71</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve">Forest Fire   </t>
         </is>
@@ -1306,9 +1592,12 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
         <v>72</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Glacial Lake Outburst Floods</t>
         </is>
@@ -1319,9 +1608,12 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
         <v>73</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Glaciers</t>
         </is>
@@ -1332,9 +1624,12 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
         <v>74</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Glofs</t>
         </is>
@@ -1345,9 +1640,12 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
         <v>75</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Hailstones</t>
         </is>
@@ -1358,9 +1656,12 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
         <v>76</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Hazard</t>
         </is>
@@ -1371,9 +1672,12 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
         <v>77</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Heavy Showers</t>
         </is>
@@ -1384,9 +1688,12 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
         <v>78</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Houses Damage</t>
         </is>
@@ -1397,9 +1704,12 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
         <v>79</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Humanitarian Relief</t>
         </is>
@@ -1410,9 +1720,12 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
         <v>80</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Hurricane</t>
         </is>
@@ -1423,9 +1736,12 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
         <v>81</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Hyogo Framework For Action</t>
         </is>
@@ -1436,9 +1752,12 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
         <v>82</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Impact Analysis</t>
         </is>
@@ -1449,9 +1768,12 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
         <v>83</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Inter-Agency Standing Committee</t>
         </is>
@@ -1462,9 +1784,12 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
         <v>84</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Intergovernmental Panel On Climate Change</t>
         </is>
@@ -1475,9 +1800,12 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
         <v>85</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>International Disaster Response Law</t>
         </is>
@@ -1488,9 +1816,12 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
         <v>86</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>International Federation Of Red Cross And Red Crescent Societies</t>
         </is>
@@ -1501,9 +1832,12 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
         <v>87</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>International Search And Rescue Advisory Group</t>
         </is>
@@ -1514,9 +1848,12 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
         <v>88</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Landslides</t>
         </is>
@@ -1527,9 +1864,12 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
         <v>89</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t xml:space="preserve">Landsliding  </t>
         </is>
@@ -1540,9 +1880,12 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
         <v>90</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Land-Use Planning</t>
         </is>
@@ -1553,9 +1896,12 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
         <v>91</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Lightening</t>
         </is>
@@ -1566,9 +1912,12 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
         <v>92</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Local Emergency Management Agency</t>
         </is>
@@ -1579,9 +1928,12 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
         <v>93</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Major Disaster</t>
         </is>
@@ -1592,9 +1944,12 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
         <v>94</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve"> Malaria</t>
         </is>
@@ -1605,9 +1960,12 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
         <v>95</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Maritime Incident Response Group</t>
         </is>
@@ -1618,9 +1976,12 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
         <v>96</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Mass Movement</t>
         </is>
@@ -1631,9 +1992,12 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
         <v>97</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Mass Rescue Operation</t>
         </is>
@@ -1644,9 +2008,12 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
         <v>98</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Measles</t>
         </is>
@@ -1657,9 +2024,12 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
         <v>99</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Mediated Retrospection</t>
         </is>
@@ -1670,9 +2040,12 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
         <v>101</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Mental Health</t>
         </is>
@@ -1683,9 +2056,12 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
         <v>102</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Mitigation</t>
         </is>
@@ -1696,9 +2072,12 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
         <v>103</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Mitigation</t>
         </is>
@@ -1709,9 +2088,12 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
         <v>104</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Moral Hazards</t>
         </is>
@@ -1722,9 +2104,12 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
         <v>105</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Multi-Hazard Approach</t>
         </is>
@@ -1735,9 +2120,12 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
         <v>106</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Narrative Retrospection</t>
         </is>
@@ -1748,9 +2136,12 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
         <v>107</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>National Climate Change Act</t>
         </is>
@@ -1761,9 +2152,12 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
         <v>108</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>National Climate Change Policy</t>
         </is>
@@ -1774,9 +2168,12 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
         <v>109</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>National Disaster Management Act</t>
         </is>
@@ -1787,9 +2184,12 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
         <v>110</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t xml:space="preserve">National Disaster Management Authority, Pakistan  </t>
         </is>
@@ -1800,9 +2200,12 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
         <v>111</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>National Disaster Management Plan</t>
         </is>
@@ -1813,9 +2216,12 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
         <v>112</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>National Disaster Management Policy</t>
         </is>
@@ -1826,9 +2232,12 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
         <v>113</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>National Incident Management System</t>
         </is>
@@ -1839,9 +2248,12 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
         <v>114</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Natural Disaster</t>
         </is>
@@ -1852,9 +2264,12 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
         <v>115</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>NDMA</t>
         </is>
@@ -1865,9 +2280,12 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
         <v>116</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>NDMACT</t>
         </is>
@@ -1878,9 +2296,12 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
         <v>117</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>NDMAct-2010</t>
         </is>
@@ -1891,9 +2312,12 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
         <v>118</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>NDMA-Pakistan</t>
         </is>
@@ -1904,9 +2328,12 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
         <v>119</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Network For Social Studies On Disaster Prevention In Latin America</t>
         </is>
@@ -1917,9 +2344,12 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
         <v>120</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>OCHA</t>
         </is>
@@ -1930,9 +2360,12 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
         <v>121</v>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Office For The Coordination Of Humanitarian Affairs</t>
         </is>
@@ -1943,9 +2376,12 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
         <v>122</v>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>Office For The Coordination Of Humanitarian Affairs Donor Support Group</t>
         </is>
@@ -1956,9 +2392,12 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
         <v>123</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>On-Site Operations Coordination Centre</t>
         </is>
@@ -1969,9 +2408,12 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
         <v>124</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Organizational Accident Theory</t>
         </is>
@@ -1982,9 +2424,12 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
         <v>125</v>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Pandemic</t>
         </is>
@@ -1995,9 +2440,12 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
         <v>126</v>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>Pdma</t>
         </is>
@@ -2008,9 +2456,12 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
         <v>127</v>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Pdma-Kp</t>
         </is>
@@ -2021,9 +2472,12 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
         <v>128</v>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Post-Traumatic Stress Disorder</t>
         </is>
@@ -2034,9 +2488,12 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
         <v>129</v>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>Prediction</t>
         </is>
@@ -2047,9 +2504,12 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
         <v>130</v>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Preparedness</t>
         </is>
@@ -2060,9 +2520,12 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
         <v>131</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>Pressure And Release Model</t>
         </is>
@@ -2073,9 +2536,12 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
         <v>132</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>Prevention</t>
         </is>
@@ -2086,9 +2552,12 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
         <v>133</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>Provincial Disaster Management Authority , Khyber Pakhtunkhwa</t>
         </is>
@@ -2099,9 +2568,12 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>132</v>
+      </c>
+      <c r="C134" t="n">
         <v>134</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t xml:space="preserve">Quack  </t>
         </is>
@@ -2112,9 +2584,12 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>133</v>
+      </c>
+      <c r="C135" t="n">
         <v>135</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>Qualitative Risk Assessment</t>
         </is>
@@ -2125,9 +2600,12 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="n">
         <v>136</v>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>Quantitative Risk Assessment</t>
         </is>
@@ -2138,9 +2616,12 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>135</v>
+      </c>
+      <c r="C137" t="n">
         <v>137</v>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>Reconstruction</t>
         </is>
@@ -2151,9 +2632,12 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>136</v>
+      </c>
+      <c r="C138" t="n">
         <v>138</v>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>Recovery</t>
         </is>
@@ -2164,9 +2648,12 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>137</v>
+      </c>
+      <c r="C139" t="n">
         <v>139</v>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>Relief</t>
         </is>
@@ -2177,9 +2664,12 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>138</v>
+      </c>
+      <c r="C140" t="n">
         <v>140</v>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>Rescue Coordination Centre</t>
         </is>
@@ -2190,9 +2680,12 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>139</v>
+      </c>
+      <c r="C141" t="n">
         <v>141</v>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>Resilience</t>
         </is>
@@ -2203,9 +2696,12 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>140</v>
+      </c>
+      <c r="C142" t="n">
         <v>142</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
@@ -2216,9 +2712,12 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>141</v>
+      </c>
+      <c r="C143" t="n">
         <v>143</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>Risk</t>
         </is>
@@ -2229,9 +2728,12 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>142</v>
+      </c>
+      <c r="C144" t="n">
         <v>144</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
@@ -2242,9 +2744,12 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>143</v>
+      </c>
+      <c r="C145" t="n">
         <v>145</v>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>Risk Communication</t>
         </is>
@@ -2255,9 +2760,12 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>144</v>
+      </c>
+      <c r="C146" t="n">
         <v>146</v>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Risk Management</t>
         </is>
@@ -2268,9 +2776,12 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>145</v>
+      </c>
+      <c r="C147" t="n">
         <v>147</v>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>Risk Perception</t>
         </is>
@@ -2281,9 +2792,12 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>146</v>
+      </c>
+      <c r="C148" t="n">
         <v>148</v>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>River Flood</t>
         </is>
@@ -2294,9 +2808,12 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>147</v>
+      </c>
+      <c r="C149" t="n">
         <v>149</v>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>Road Damage</t>
         </is>
@@ -2307,9 +2824,12 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" t="n">
         <v>150</v>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>Scenario Planning</t>
         </is>
@@ -2320,9 +2840,12 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" t="n">
         <v>151</v>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>School Damage</t>
         </is>
@@ -2333,9 +2856,12 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>150</v>
+      </c>
+      <c r="C152" t="n">
         <v>152</v>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Search And Rescue</t>
         </is>
@@ -2346,9 +2872,12 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>151</v>
+      </c>
+      <c r="C153" t="n">
         <v>153</v>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Sendai Framework</t>
         </is>
@@ -2359,9 +2888,12 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>152</v>
+      </c>
+      <c r="C154" t="n">
         <v>154</v>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Settlement Fire</t>
         </is>
@@ -2372,9 +2904,12 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>153</v>
+      </c>
+      <c r="C155" t="n">
         <v>155</v>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>Shelter</t>
         </is>
@@ -2385,9 +2920,12 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>154</v>
+      </c>
+      <c r="C156" t="n">
         <v>156</v>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>Snow Avalanches</t>
         </is>
@@ -2398,9 +2936,12 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>155</v>
+      </c>
+      <c r="C157" t="n">
         <v>157</v>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>Snowfall</t>
         </is>
@@ -2411,9 +2952,12 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>156</v>
+      </c>
+      <c r="C158" t="n">
         <v>158</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Social Capital</t>
         </is>
@@ -2424,9 +2968,12 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" t="n">
         <v>159</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Soil Erosion</t>
         </is>
@@ -2437,9 +2984,12 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>158</v>
+      </c>
+      <c r="C160" t="n">
         <v>160</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>Space Hazards</t>
         </is>
@@ -2450,9 +3000,12 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" t="n">
         <v>161</v>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>Sphere Handbook</t>
         </is>
@@ -2463,9 +3016,12 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" t="n">
         <v>162</v>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Sphere Project</t>
         </is>
@@ -2476,9 +3032,12 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>161</v>
+      </c>
+      <c r="C163" t="n">
         <v>163</v>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>State Of Emergency</t>
         </is>
@@ -2489,9 +3048,12 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="n">
         <v>164</v>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Storm</t>
         </is>
@@ -2502,9 +3064,12 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" t="n">
         <v>165</v>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Surge Capacity</t>
         </is>
@@ -2515,9 +3080,12 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" t="n">
         <v>166</v>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Sustainable Development</t>
         </is>
@@ -2528,9 +3096,12 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>165</v>
+      </c>
+      <c r="C167" t="n">
         <v>167</v>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>Technological Disaster</t>
         </is>
@@ -2541,9 +3112,12 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="n">
         <v>168</v>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>Thunderstorms</t>
         </is>
@@ -2554,9 +3128,12 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" t="n">
         <v>169</v>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Tornado</t>
         </is>
@@ -2567,9 +3144,12 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" t="n">
         <v>170</v>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>Torrential Rainfall</t>
         </is>
@@ -2580,9 +3160,12 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>169</v>
+      </c>
+      <c r="C171" t="n">
         <v>171</v>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>Transboundary Disasters</t>
         </is>
@@ -2593,9 +3176,12 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" t="n">
         <v>172</v>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>Tropical Cyclone</t>
         </is>
@@ -2606,9 +3192,12 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" t="n">
         <v>173</v>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>Tsunami</t>
         </is>
@@ -2619,9 +3208,12 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>172</v>
+      </c>
+      <c r="C174" t="n">
         <v>174</v>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>Typhoon</t>
         </is>
@@ -2632,9 +3224,12 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>173</v>
+      </c>
+      <c r="C175" t="n">
         <v>175</v>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
@@ -2645,9 +3240,12 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>174</v>
+      </c>
+      <c r="C176" t="n">
         <v>176</v>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>UNDRR</t>
         </is>
@@ -2658,9 +3256,12 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>175</v>
+      </c>
+      <c r="C177" t="n">
         <v>177</v>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>UNISDR</t>
         </is>
@@ -2671,9 +3272,12 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>176</v>
+      </c>
+      <c r="C178" t="n">
         <v>178</v>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>United Nations Disaster Assessment And Coordination</t>
         </is>
@@ -2684,9 +3288,12 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>177</v>
+      </c>
+      <c r="C179" t="n">
         <v>179</v>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>United Nations Office For Disaster Risk Reduction</t>
         </is>
@@ -2697,9 +3304,12 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>178</v>
+      </c>
+      <c r="C180" t="n">
         <v>180</v>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>Urban Flood</t>
         </is>
@@ -2710,9 +3320,12 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>179</v>
+      </c>
+      <c r="C181" t="n">
         <v>181</v>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>Urban Flooding</t>
         </is>
@@ -2723,9 +3336,12 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>180</v>
+      </c>
+      <c r="C182" t="n">
         <v>182</v>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Urban Search And Rescue</t>
         </is>
@@ -2736,9 +3352,12 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>181</v>
+      </c>
+      <c r="C183" t="n">
         <v>183</v>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>Volcanic Eruptions</t>
         </is>
@@ -2749,9 +3368,12 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>182</v>
+      </c>
+      <c r="C184" t="n">
         <v>184</v>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Volcano</t>
         </is>
@@ -2762,9 +3384,12 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>183</v>
+      </c>
+      <c r="C185" t="n">
         <v>185</v>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>Vulnerabilities Analysis Matrix</t>
         </is>
@@ -2775,9 +3400,12 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>184</v>
+      </c>
+      <c r="C186" t="n">
         <v>186</v>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -2788,9 +3416,12 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>185</v>
+      </c>
+      <c r="C187" t="n">
         <v>187</v>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -2801,9 +3432,12 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>186</v>
+      </c>
+      <c r="C188" t="n">
         <v>188</v>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>Vulnerability And Capacity Analysis</t>
         </is>
@@ -2814,9 +3448,12 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" t="n">
         <v>189</v>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Wilde Fire</t>
         </is>
@@ -2827,9 +3464,12 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>188</v>
+      </c>
+      <c r="C190" t="n">
         <v>190</v>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>World Health Organization</t>
         </is>
@@ -2840,9 +3480,12 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>189</v>
+      </c>
+      <c r="C191" t="n">
         <v>191</v>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>covid-19</t>
         </is>
@@ -2853,9 +3496,12 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>190</v>
+      </c>
+      <c r="C192" t="n">
         <v>192</v>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>covid 19</t>
         </is>
@@ -2866,9 +3512,12 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>191</v>
+      </c>
+      <c r="C193" t="n">
         <v>193</v>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>coronavirus</t>
         </is>
@@ -2879,9 +3528,12 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>192</v>
+      </c>
+      <c r="C194" t="n">
         <v>194</v>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>virus</t>
         </is>
@@ -2889,12 +3541,15 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
         <v>194</v>
       </c>
-      <c r="B195" t="n">
+      <c r="C195" t="n">
         <v>197</v>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>pandemic</t>
         </is>
@@ -2902,12 +3557,15 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
         <v>195</v>
       </c>
-      <c r="B196" t="n">
+      <c r="C196" t="n">
         <v>198</v>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>lock down</t>
         </is>
@@ -2915,12 +3573,15 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
         <v>196</v>
       </c>
-      <c r="B197" t="n">
+      <c r="C197" t="n">
         <v>199</v>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>put off</t>
         </is>
@@ -2928,12 +3589,15 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>197</v>
       </c>
-      <c r="B198" t="n">
+      <c r="C198" t="n">
         <v>200</v>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>look down on</t>
         </is>
@@ -2941,12 +3605,15 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
         <v>198</v>
       </c>
-      <c r="B199" t="n">
+      <c r="C199" t="n">
         <v>201</v>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>Epidemic</t>
         </is>
@@ -2954,12 +3621,15 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
         <v>199</v>
       </c>
-      <c r="B200" t="n">
+      <c r="C200" t="n">
         <v>202</v>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>Lockdown</t>
         </is>
@@ -2967,12 +3637,15 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
         <v>200</v>
       </c>
-      <c r="B201" t="n">
+      <c r="C201" t="n">
         <v>203</v>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>Social Distancing</t>
         </is>
@@ -2980,18 +3653,35 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
         <v>201</v>
       </c>
-      <c r="B202" t="n">
+      <c r="C202" t="n">
         <v>205</v>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>SARS-CoV-2</t>
         </is>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="n">
+        <v>205</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>fayaz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>